--- a/u17.xlsx
+++ b/u17.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\volleyball_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\volleyball_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A659EFC-65D9-4072-8008-4C05E20B7275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82127E81-528C-4CFB-8FAE-4819CDFDA287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="matches" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
-    <t>التاريخ</t>
-  </si>
-  <si>
-    <t>الفريق A</t>
-  </si>
-  <si>
-    <t>الفريق B</t>
-  </si>
-  <si>
-    <t>الملعب</t>
-  </si>
-  <si>
     <t>2025-10-01</t>
   </si>
   <si>
@@ -72,9 +60,6 @@
     <t>برج العرب</t>
   </si>
   <si>
-    <t>النتيجة</t>
-  </si>
-  <si>
     <t>3-0</t>
   </si>
   <si>
@@ -84,19 +69,34 @@
     <t>1-3</t>
   </si>
   <si>
-    <t>الفريق</t>
-  </si>
-  <si>
-    <t>النقاط</t>
-  </si>
-  <si>
-    <t>فاز</t>
-  </si>
-  <si>
-    <t>خسر</t>
-  </si>
-  <si>
     <t>المؤسسة</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Team A</t>
+  </si>
+  <si>
+    <t>Team B</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Losses</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,58 +475,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +539,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,46 +551,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -602,35 +602,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
